--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Wnt5a-Fzd7.xlsx
@@ -549,10 +549,10 @@
         <v>22.544385</v>
       </c>
       <c r="I2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J2">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N2">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P2">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q2">
-        <v>3.25411664926</v>
+        <v>10.243514756835</v>
       </c>
       <c r="R2">
-        <v>29.28704984334</v>
+        <v>92.19163281151499</v>
       </c>
       <c r="S2">
-        <v>0.01868977771982988</v>
+        <v>0.05926470055666989</v>
       </c>
       <c r="T2">
-        <v>0.01868977771982988</v>
+        <v>0.05926470055666988</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>22.544385</v>
       </c>
       <c r="I3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J3">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>11.980769</v>
       </c>
       <c r="O3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P3">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q3">
         <v>30.01100765911833</v>
@@ -641,10 +641,10 @@
         <v>270.099068932065</v>
       </c>
       <c r="S3">
-        <v>0.1723659975202747</v>
+        <v>0.1736311631839848</v>
       </c>
       <c r="T3">
-        <v>0.1723659975202747</v>
+        <v>0.1736311631839848</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,10 +673,10 @@
         <v>22.544385</v>
       </c>
       <c r="I4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J4">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N4">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P4">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q4">
-        <v>39.07938131823832</v>
+        <v>24.09406598544666</v>
       </c>
       <c r="R4">
-        <v>351.7144318641449</v>
+        <v>216.84659386902</v>
       </c>
       <c r="S4">
-        <v>0.2244495293161784</v>
+        <v>0.1393982084974647</v>
       </c>
       <c r="T4">
-        <v>0.2244495293161785</v>
+        <v>0.1393982084974647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>22.544385</v>
       </c>
       <c r="I5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J5">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N5">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P5">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q5">
-        <v>30.34955668866333</v>
+        <v>20.77918971368</v>
       </c>
       <c r="R5">
-        <v>273.14601019797</v>
+        <v>187.01270742312</v>
       </c>
       <c r="S5">
-        <v>0.1743104287719629</v>
+        <v>0.1202197180777017</v>
       </c>
       <c r="T5">
-        <v>0.174310428771963</v>
+        <v>0.1202197180777017</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -797,10 +797,10 @@
         <v>22.544385</v>
       </c>
       <c r="I6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J6">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N6">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P6">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q6">
-        <v>29.88572600674167</v>
+        <v>36.81172930369667</v>
       </c>
       <c r="R6">
-        <v>268.971534060675</v>
+        <v>331.30556373327</v>
       </c>
       <c r="S6">
-        <v>0.171646451638038</v>
+        <v>0.2129772998765949</v>
       </c>
       <c r="T6">
-        <v>0.171646451638038</v>
+        <v>0.2129772998765949</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>22.544385</v>
       </c>
       <c r="I7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="J7">
-        <v>0.992147452492356</v>
+        <v>0.977669497583861</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N7">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P7">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q7">
-        <v>40.16509886038501</v>
+        <v>47.04425242037833</v>
       </c>
       <c r="R7">
-        <v>361.4858897434651</v>
+        <v>423.398271783405</v>
       </c>
       <c r="S7">
-        <v>0.230685267526072</v>
+        <v>0.2721784073914449</v>
       </c>
       <c r="T7">
-        <v>0.230685267526072</v>
+        <v>0.2721784073914449</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H8">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I8">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J8">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.433028</v>
+        <v>1.363113</v>
       </c>
       <c r="N8">
-        <v>1.299084</v>
+        <v>4.089339</v>
       </c>
       <c r="O8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="P8">
-        <v>0.01883770166710565</v>
+        <v>0.06061833851125786</v>
       </c>
       <c r="Q8">
-        <v>0.02575535069866667</v>
+        <v>0.233967441546</v>
       </c>
       <c r="R8">
-        <v>0.231798156288</v>
+        <v>2.105706973914</v>
       </c>
       <c r="S8">
-        <v>0.0001479239472757711</v>
+        <v>0.001353637954587974</v>
       </c>
       <c r="T8">
-        <v>0.0001479239472757712</v>
+        <v>0.001353637954587974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H9">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I9">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J9">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>11.980769</v>
       </c>
       <c r="O9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713293</v>
       </c>
       <c r="P9">
-        <v>0.1737302223447504</v>
+        <v>0.1775969932713292</v>
       </c>
       <c r="Q9">
-        <v>0.2375280638008889</v>
+        <v>0.685467717566</v>
       </c>
       <c r="R9">
-        <v>2.137752574208</v>
+        <v>6.169209458094</v>
       </c>
       <c r="S9">
-        <v>0.001364224824475702</v>
+        <v>0.003965830087344436</v>
       </c>
       <c r="T9">
-        <v>0.001364224824475703</v>
+        <v>0.003965830087344436</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H10">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I10">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J10">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.200325666666665</v>
+        <v>3.206217333333333</v>
       </c>
       <c r="N10">
-        <v>15.600977</v>
+        <v>9.618651999999999</v>
       </c>
       <c r="O10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="P10">
-        <v>0.226225979568201</v>
+        <v>0.1425821393036839</v>
       </c>
       <c r="Q10">
-        <v>0.3093015031182221</v>
+        <v>0.5503215555279999</v>
       </c>
       <c r="R10">
-        <v>2.783713528064</v>
+        <v>4.952893999752</v>
       </c>
       <c r="S10">
-        <v>0.001776450252022592</v>
+        <v>0.003183930806219177</v>
       </c>
       <c r="T10">
-        <v>0.001776450252022593</v>
+        <v>0.003183930806219177</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H11">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I11">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J11">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.038640666666667</v>
+        <v>2.765104</v>
       </c>
       <c r="N11">
-        <v>12.115922</v>
+        <v>8.295312000000001</v>
       </c>
       <c r="O11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445606</v>
       </c>
       <c r="P11">
-        <v>0.1756900431826749</v>
+        <v>0.1229656017445605</v>
       </c>
       <c r="Q11">
-        <v>0.2402075771448889</v>
+        <v>0.474607980768</v>
       </c>
       <c r="R11">
-        <v>2.161868194304</v>
+        <v>4.271471826912</v>
       </c>
       <c r="S11">
-        <v>0.001379614410711975</v>
+        <v>0.002745883666858893</v>
       </c>
       <c r="T11">
-        <v>0.001379614410711975</v>
+        <v>0.002745883666858893</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>26</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H12">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I12">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J12">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.976918333333334</v>
+        <v>4.898567333333333</v>
       </c>
       <c r="N12">
-        <v>11.930755</v>
+        <v>14.695702</v>
       </c>
       <c r="O12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="P12">
-        <v>0.1730049814741226</v>
+        <v>0.2178418170996753</v>
       </c>
       <c r="Q12">
-        <v>0.2365364973511111</v>
+        <v>0.8407998942279999</v>
       </c>
       <c r="R12">
-        <v>2.12882847616</v>
+        <v>7.567199048052</v>
       </c>
       <c r="S12">
-        <v>0.001358529836084613</v>
+        <v>0.004864517223080404</v>
       </c>
       <c r="T12">
-        <v>0.001358529836084613</v>
+        <v>0.004864517223080404</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>27</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.05947733333333333</v>
+        <v>0.171642</v>
       </c>
       <c r="H13">
-        <v>0.178432</v>
+        <v>0.514926</v>
       </c>
       <c r="I13">
-        <v>0.007852547507643968</v>
+        <v>0.02233050241613897</v>
       </c>
       <c r="J13">
-        <v>0.00785254750764397</v>
+        <v>0.02233050241613898</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.344803000000002</v>
+        <v>6.260217666666667</v>
       </c>
       <c r="N13">
-        <v>16.034409</v>
+        <v>18.780653</v>
       </c>
       <c r="O13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="P13">
-        <v>0.2325110717631454</v>
+        <v>0.278395110069493</v>
       </c>
       <c r="Q13">
-        <v>0.3178946296320001</v>
+        <v>1.074516280742</v>
       </c>
       <c r="R13">
-        <v>2.861051666688001</v>
+        <v>9.670646526678</v>
       </c>
       <c r="S13">
-        <v>0.001825804237073315</v>
+        <v>0.006216702678048089</v>
       </c>
       <c r="T13">
-        <v>0.001825804237073315</v>
+        <v>0.00621670267804809</v>
       </c>
     </row>
   </sheetData>
